--- a/artfynd/A 26089-2025 artfynd.xlsx
+++ b/artfynd/A 26089-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY19"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2840,6 +2840,751 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>131106801</v>
+      </c>
+      <c r="B20" t="n">
+        <v>57300</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>102961</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Drillsnäppa</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Actitis hypoleucos</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Paljack, Mpd</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>600200</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6973062</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>2025_0375</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>par i häckbiotop</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Anders Forsberg</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131106774</v>
+      </c>
+      <c r="B21" t="n">
+        <v>79833</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>229821</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Vedflamlav</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Ramboldia elabens</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Nordansjö, Mpd</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>600324</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6972295</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>2025_0402</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>08:16</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>08:16</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>131106800</v>
+      </c>
+      <c r="B22" t="n">
+        <v>57300</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>102961</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Drillsnäppa</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Actitis hypoleucos</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Paljack, Mpd</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>600203</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6973054</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>2025_0376</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>15:06</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>15:06</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>par i häckbiotop</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Anders Forsberg</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131106775</v>
+      </c>
+      <c r="B23" t="n">
+        <v>79862</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>cm²</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Nordansjö, Mpd</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>600380</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6972329</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>2025_0401</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>08:07</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>08:07</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>David Isaksson, Karin Halldin</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131106670</v>
+      </c>
+      <c r="B24" t="n">
+        <v>79833</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>229821</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Vedflamlav</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Ramboldia elabens</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Nordansjö, Mpd</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>600304</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6972313</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>2025_0506</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>08:28</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>08:28</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Karin Halldin</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>131106669</v>
+      </c>
+      <c r="B25" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Nordansjö, Mpd</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>600375</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6972262</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Liden</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>2025_0507</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>08:41</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>08:41</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Karin Halldin</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
